--- a/organizacion-personal/materiales/02Horario.xlsx
+++ b/organizacion-personal/materiales/02Horario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\ayudantía gtd - mt\materiales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\PRODUCCION\00. ACCIÓN PROXIMA\04. Trucos del Oficio\trucos_del_oficio\organizacion-personal\materiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820EFE2-68CD-45C0-9C55-895E9D6BF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D01B1D8-6C26-4CD3-B72B-24EEA11F87DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="11655" windowHeight="14130" xr2:uid="{D05C1E61-6BE0-4DF9-84A9-E81A91B425BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{D05C1E61-6BE0-4DF9-84A9-E81A91B425BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>Lunes</t>
   </si>
@@ -52,15 +52,6 @@
     <t>Despertar-Te</t>
   </si>
   <si>
-    <t>Ej. Chest, Shoulder y Tricep</t>
-  </si>
-  <si>
-    <t>Ej. Lower + Abs</t>
-  </si>
-  <si>
-    <t>Ej. Back, Bicep, Shoulder</t>
-  </si>
-  <si>
     <t>Ducha- Desayuno</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
     <t>Producción Académica</t>
   </si>
   <si>
-    <t>Ej. Lower + Abs+Yoga</t>
-  </si>
-  <si>
     <t>Feria</t>
   </si>
   <si>
@@ -94,13 +82,22 @@
     <t>Libre</t>
   </si>
   <si>
-    <t>Curso Métodos Cuanti</t>
-  </si>
-  <si>
-    <t>Horario 2° semestre</t>
-  </si>
-  <si>
     <t>Música +Vuelta</t>
+  </si>
+  <si>
+    <t>Ejercicio</t>
+  </si>
+  <si>
+    <t>Trucos del oficio</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos 2</t>
+  </si>
+  <si>
+    <t>Ejercio</t>
+  </si>
+  <si>
+    <t>Horario 1° semestre</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -194,11 +191,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -213,22 +221,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,22 +559,22 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -591,7 +602,7 @@
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>0.22916666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -608,408 +619,402 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>0.25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.3125</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.375</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.5</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.625</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>0.75</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
@@ -1106,7 +1111,31 @@
       <c r="H37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G19:G29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="H3:H29"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1123,32 +1152,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G19:G29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1158,23 +1161,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE98F39-45C2-4F80-8E2C-EC7318556C58}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
